--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>913987.5072846825</v>
+        <v>911506.587459223</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.813695076354</v>
+        <v>311.5034673860673</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>30.81310860085838</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524936</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717754</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830083</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302864</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.317792068927</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,10 +1528,10 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>90.12097307877008</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>31.65866557020468</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1582,16 +1582,16 @@
         <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184863</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494644</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649683</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>367.7634045425696</v>
       </c>
       <c r="G14" t="n">
         <v>384.001579066327</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>82.2676152010494</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>152.5174692299082</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>86.26051497487752</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292089</v>
       </c>
       <c r="S16" t="n">
-        <v>131.2745253919993</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
         <v>192.6288026890427</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.1321256560529</v>
+        <v>267.1640487096455</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1859,7 +1859,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245677</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432826</v>
+        <v>77.43656365929034</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>214.2140663782817</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2087,13 +2087,13 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134329045</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245677</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>50.82754388491412</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411903</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432826</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948565</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>214.2140663782818</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>178.2734363206861</v>
       </c>
       <c r="T25" t="n">
-        <v>208.0533602654142</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3086,7 +3086,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007073</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T35" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383243</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052297</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010749</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846431</v>
       </c>
       <c r="F37" t="n">
-        <v>89.94326605922136</v>
+        <v>47.73632779482638</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092336</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621568</v>
+        <v>47.07029468621592</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333679</v>
+        <v>143.0438109257875</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775077</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007073</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383219</v>
+        <v>133.106765776284</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>93.13769105450224</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333679</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.3541982182262</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>239.4866237999591</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592153</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.3541982182265</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>205.4124289181745</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.580684958769</v>
+        <v>1184.064799705181</v>
       </c>
       <c r="C11" t="n">
-        <v>1485.580684958769</v>
+        <v>1184.064799705181</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.507053611743</v>
+        <v>852.9911683581547</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>852.9911683581547</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597797</v>
+        <v>469.1973308282708</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644999</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3169479329909</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395987</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039933</v>
+        <v>3063.721540039937</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573493</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489646</v>
+        <v>2533.51231048965</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479255</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X11" t="n">
-        <v>2207.935722479255</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y11" t="n">
-        <v>1844.988457763167</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>480.951027543685</v>
+        <v>418.3126375609368</v>
       </c>
       <c r="C13" t="n">
-        <v>480.951027543685</v>
+        <v>276.5685218927536</v>
       </c>
       <c r="D13" t="n">
-        <v>358.0264553910731</v>
+        <v>185.537235954602</v>
       </c>
       <c r="E13" t="n">
-        <v>358.0264553910731</v>
+        <v>185.537235954602</v>
       </c>
       <c r="F13" t="n">
-        <v>358.0264553910731</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G13" t="n">
-        <v>217.5156860255158</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>98.49056650309718</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058533</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145083</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974333</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413538</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.805420636301</v>
+        <v>967.1670306535527</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0079369980073</v>
+        <v>766.3695470152591</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4074251142009</v>
+        <v>572.7690351314527</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1211.587353696675</v>
+        <v>1498.714766761814</v>
       </c>
       <c r="C14" t="n">
-        <v>1211.587353696675</v>
+        <v>1156.944317081126</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.587353696675</v>
+        <v>825.8706857340992</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9911683581548</v>
+        <v>825.8706857340992</v>
       </c>
       <c r="F14" t="n">
-        <v>469.197330828271</v>
+        <v>454.3924993274632</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299116</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299116</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5309,19 +5309,19 @@
         <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2909.663490312755</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2605.792670228908</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2280.216082218518</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>1933.942391217162</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1570.995126501074</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158125</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,22 +5373,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199864</v>
@@ -5397,7 +5397,7 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>450.2059237753969</v>
+        <v>418.3126375609358</v>
       </c>
       <c r="C16" t="n">
-        <v>308.4618081072136</v>
+        <v>276.5685218927526</v>
       </c>
       <c r="D16" t="n">
-        <v>185.5372359546018</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="E16" t="n">
-        <v>185.5372359546018</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="F16" t="n">
-        <v>185.5372359546018</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5372359546018</v>
+        <v>153.6439497401406</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5434,52 +5434,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1945.263188376796</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1750.688640206046</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1488.777840591413</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1261.28541964525</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>999.0603168680129</v>
+        <v>967.1670306535518</v>
       </c>
       <c r="X16" t="n">
-        <v>798.2628332297193</v>
+        <v>766.3695470152581</v>
       </c>
       <c r="Y16" t="n">
-        <v>604.6623213459129</v>
+        <v>572.7690351314518</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666651</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.228971144636</v>
+        <v>966.2289711446369</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628256</v>
+        <v>629.8847665628264</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
@@ -5525,40 +5525,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
         <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W17" t="n">
-        <v>2723.310842281942</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.486784228659</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y17" t="n">
-        <v>2108.989152460644</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,7 +5607,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
         <v>2407.41198488674</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872281</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671182</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625796</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978702</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604103</v>
+        <v>89.19609340604107</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5677,46 +5677,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1849.075796917491</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454039</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096708</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.32033866665</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934036</v>
+        <v>1224.583240809386</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104324</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446356</v>
+        <v>629.8126900199851</v>
       </c>
       <c r="F20" t="n">
-        <v>629.884766562825</v>
+        <v>293.4684854381745</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156191</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218339</v>
@@ -5762,7 +5762,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
@@ -5771,7 +5771,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
@@ -5780,22 +5780,22 @@
         <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3289.956853344062</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.068076825695</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.72712340659</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344273</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.77611029099</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522975</v>
+        <v>1830.862197398325</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
@@ -5829,10 +5829,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5853,28 +5853,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.121778987228</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671182</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625795</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.196093406041</v>
+        <v>89.19609340604107</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218339</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454038</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096707</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056949</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925381</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349341</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953124</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>388.4813261528503</v>
+        <v>277.7692084607039</v>
       </c>
       <c r="K23" t="n">
-        <v>722.3006998426968</v>
+        <v>932.4925405960034</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.334913091106</v>
+        <v>1383.526753844412</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.86681776303</v>
+        <v>1917.058658516337</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.645634821813</v>
+        <v>2463.837475575119</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.618105701149</v>
+        <v>2966.809946454456</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058328</v>
+        <v>3361.584312811634</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124118</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.23877285901</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451029</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681289</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913274</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094441</v>
+        <v>92.38504642094421</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130997</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.987417377527</v>
+        <v>575.9874173775275</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574171</v>
+        <v>481.6929346574176</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528785</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782824</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881691</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706851</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633997</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119736</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453176</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
         <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259231</v>
+        <v>982.4929116259236</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357028</v>
+        <v>829.1450609357033</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999697</v>
+        <v>682.9941819999702</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557148</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910144</v>
+        <v>625.3777437664576</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911348</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.09431497013</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O26" t="n">
-        <v>3336.058965299585</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6269,7 +6269,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257035</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415465</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,7 +6400,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991701</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890166</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037425</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.68494470935</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768132</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,10 +6497,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
@@ -6616,16 +6616,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,7 +6640,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
         <v>2271.591606277852</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K32" t="n">
-        <v>937.3106675423223</v>
+        <v>924.7493799910144</v>
       </c>
       <c r="L32" t="n">
-        <v>1388.344880790731</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1921.876785462656</v>
+        <v>1909.315497911348</v>
       </c>
       <c r="N32" t="n">
-        <v>2468.655602521438</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>2971.628073400775</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3730.833331656763</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3979.119693412445</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
         <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6871,37 +6871,37 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6914,64 +6914,64 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464983</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307343</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
@@ -7005,16 +7005,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>839.5784050866023</v>
+        <v>402.259395817093</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586954</v>
+        <v>331.9946474630294</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463596</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
-        <v>372.6124891639665</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657631</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1692.975392941185</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1471.208777510711</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1182.105910636355</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699976</v>
+        <v>1026.092857004311</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236859</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912685</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.5554353429984</v>
+        <v>485.2364260734894</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601597</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064539</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158132</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127586</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C40" t="n">
-        <v>670.6422221586952</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D40" t="n">
-        <v>576.5637463460666</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396066</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758176</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>886.8213698466996</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388412</v>
+        <v>757.5032535225256</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691547</v>
+        <v>635.3821089528388</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,19 +7409,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7439,22 +7439,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909358</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368723</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>379.22087719838</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657633</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1182.105910636354</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649975</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214673</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7628,43 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
@@ -7676,19 +7676,19 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960652</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9308303909355</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>430.6660820368721</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>379.2208771983798</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058689</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552288</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891713</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X46" t="n">
-        <v>847.3337107649975</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.5411316214673</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>157.2353108430638</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729018</v>
+        <v>184.4039433729019</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389616</v>
+        <v>191.4948909389618</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333081</v>
+        <v>181.0856325333082</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830255</v>
+        <v>179.3553748830256</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384003</v>
+        <v>182.8301554384005</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586596</v>
+        <v>190.8908035586597</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266132</v>
+        <v>192.0103836266133</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,19 +8535,19 @@
         <v>113.603122337254</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672283</v>
+        <v>105.9629718672284</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253603</v>
+        <v>104.1013981253605</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677763</v>
+        <v>92.30246558677774</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359746</v>
+        <v>106.8829608359747</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798332</v>
+        <v>105.3113487798333</v>
       </c>
       <c r="Q9" t="n">
         <v>120.8212784615463</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564663</v>
+        <v>116.1755252564664</v>
       </c>
       <c r="M10" t="n">
         <v>119.1996074085233</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140783</v>
+        <v>108.4284123140784</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530929</v>
+        <v>120.669460053093</v>
       </c>
       <c r="P10" t="n">
         <v>122.5080856662709</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.4994347185278</v>
+        <v>15.66901280726879</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>21.7498204251479</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>19.40311602546473</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>167.7369666428366</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>19.40311602546518</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-2.742694960033987e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44.3102276902868</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>324.1971148842769</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.57435335231582</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594426</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77360825250691</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>12.19249461201537</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>71.55755614186729</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.57435335231681</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.57435335231611</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.70643280170857</v>
+        <v>41.67450974811607</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116939</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134054</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>203.0294313795017</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>851779.8243059802</v>
+        <v>851779.8243059801</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926519.267698776</v>
+        <v>926519.2676987757</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>926519.2676987759</v>
+        <v>926519.2676987756</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957006.8586091846</v>
+        <v>957006.8586091847</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
         <v>491565.803230223</v>
@@ -26320,40 +26320,40 @@
         <v>491579.2018835681</v>
       </c>
       <c r="E2" t="n">
-        <v>437724.0005429855</v>
+        <v>437724.0005429852</v>
       </c>
       <c r="F2" t="n">
-        <v>437724.0005429849</v>
+        <v>437724.000542985</v>
       </c>
       <c r="G2" t="n">
-        <v>476718.4927479219</v>
+        <v>476718.4927479218</v>
       </c>
       <c r="H2" t="n">
         <v>476718.492747922</v>
       </c>
       <c r="I2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="J2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="K2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185694</v>
+        <v>492625.0619185695</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185705</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="N2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185703</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552118</v>
+        <v>59764.553675521</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163634</v>
       </c>
       <c r="F3" t="n">
-        <v>6.377360607854956e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983383</v>
+        <v>22821.46782983389</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179704</v>
+        <v>25409.43302179701</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.782512057019631e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>435086.172443427</v>
       </c>
       <c r="E4" t="n">
-        <v>40634.10590866223</v>
+        <v>40634.10590866208</v>
       </c>
       <c r="F4" t="n">
-        <v>40634.10590866208</v>
+        <v>40634.1059086621</v>
       </c>
       <c r="G4" t="n">
-        <v>77662.26627010436</v>
+        <v>77662.26627010433</v>
       </c>
       <c r="H4" t="n">
-        <v>77662.26627010436</v>
+        <v>77662.26627010429</v>
       </c>
       <c r="I4" t="n">
         <v>91903.68494905921</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462823</v>
+        <v>91012.35309462828</v>
       </c>
       <c r="K4" t="n">
         <v>91012.35309462828</v>
@@ -26448,16 +26448,16 @@
         <v>91012.35309462826</v>
       </c>
       <c r="M4" t="n">
-        <v>92793.84288319413</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="N4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="O4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="P4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319404</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186632</v>
+        <v>35148.90543186631</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482639</v>
+        <v>76569.49036482646</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521486</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521488</v>
@@ -26497,13 +26497,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624982</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.8424046856017</v>
+        <v>158.4288268173728</v>
       </c>
       <c r="C6" t="n">
-        <v>162.8424046855434</v>
+        <v>158.428826817431</v>
       </c>
       <c r="D6" t="n">
-        <v>-38420.42966724638</v>
+        <v>-38424.78741739204</v>
       </c>
       <c r="E6" t="n">
-        <v>-768718.5678941361</v>
+        <v>-768947.3223165355</v>
       </c>
       <c r="F6" t="n">
-        <v>320520.4042694957</v>
+        <v>320291.6498470985</v>
       </c>
       <c r="G6" t="n">
-        <v>280957.4740577285</v>
+        <v>280891.1966861842</v>
       </c>
       <c r="H6" t="n">
-        <v>318537.5833526028</v>
+        <v>318471.3059810583</v>
       </c>
       <c r="I6" t="n">
-        <v>292163.3808378348</v>
+        <v>292163.3808378347</v>
       </c>
       <c r="J6" t="n">
-        <v>286825.3341273385</v>
+        <v>286825.3341273382</v>
       </c>
       <c r="K6" t="n">
-        <v>312234.7671491353</v>
+        <v>312234.7671491352</v>
       </c>
       <c r="L6" t="n">
-        <v>274654.657854261</v>
+        <v>274654.6578542611</v>
       </c>
       <c r="M6" t="n">
-        <v>115144.5217364023</v>
+        <v>115144.521736402</v>
       </c>
       <c r="N6" t="n">
         <v>317312.6217291263</v>
       </c>
       <c r="O6" t="n">
-        <v>317312.621729126</v>
+        <v>317312.6217291263</v>
       </c>
       <c r="P6" t="n">
-        <v>317312.6217291261</v>
+        <v>317312.6217291263</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
         <v>26.92014658712645</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790455</v>
+        <v>69.78465283790433</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810296</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951259</v>
+        <v>50.70958360951231</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790455</v>
+        <v>69.78465283790433</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755394</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758496</v>
+        <v>97.11452592758485</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959701</v>
+        <v>648.4664495959713</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-3.205604329332742e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780179</v>
+        <v>132.246564378018</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036574</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.2286184667212</v>
+        <v>84.22861846672122</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987543</v>
+        <v>90.83829126987546</v>
       </c>
       <c r="S9" t="n">
         <v>168.8950767192291</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241798</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519107</v>
+        <v>84.4622088851911</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990724</v>
+        <v>7.649035050990769</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317081</v>
+        <v>75.62456067317083</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437879</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712655</v>
+        <v>26.92014658712645</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075703</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49558901075545</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X22" t="n">
-        <v>11.49558901075534</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075577</v>
       </c>
       <c r="T25" t="n">
-        <v>11.495589010755</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859347</v>
+        <v>46.97513661859205</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F37" t="n">
-        <v>55.47778196370989</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810511</v>
+        <v>46.72521440565444</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810511</v>
+        <v>46.72521440565333</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>55.47778196371011</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,25 +30663,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>46.72521440565373</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.4777819637108</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810501</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413246</v>
+        <v>0.2805413179413238</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366591</v>
+        <v>2.873093772366583</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993293</v>
+        <v>10.81556915993289</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362252</v>
+        <v>23.81059368362245</v>
       </c>
       <c r="K8" t="n">
-        <v>35.6859076720788</v>
+        <v>35.68590767207868</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102562</v>
+        <v>44.27152403102549</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396465</v>
+        <v>49.2606006939645</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356544</v>
+        <v>50.05768871356529</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328639</v>
+        <v>47.26805598328625</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219660994</v>
+        <v>40.34219219660981</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783624</v>
+        <v>30.29530624783614</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313175</v>
+        <v>17.62255356313169</v>
       </c>
       <c r="S8" t="n">
-        <v>6.39283528258794</v>
+        <v>6.392835282587921</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288149</v>
+        <v>1.228069619288145</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530596</v>
+        <v>0.0224433054353059</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796437</v>
+        <v>0.1501028381796433</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840244</v>
+        <v>1.449677410840239</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693875</v>
+        <v>5.168014384693859</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906889</v>
+        <v>14.18142647906884</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710502</v>
+        <v>24.23831663710494</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126459</v>
+        <v>32.5914079126458</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665797</v>
+        <v>38.03263579665786</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655568</v>
+        <v>39.03924649655556</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360846989</v>
+        <v>35.71328360846977</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449706</v>
+        <v>28.66305863449697</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447523</v>
+        <v>19.16049562447517</v>
       </c>
       <c r="R9" t="n">
-        <v>9.31954288276771</v>
+        <v>9.31954288276768</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608732</v>
+        <v>2.788094384608723</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890024</v>
+        <v>0.6050197731890006</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722344987</v>
+        <v>0.009875186722344957</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486803</v>
+        <v>0.1258411772486799</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466810995</v>
+        <v>1.118842466810992</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078497</v>
+        <v>3.784387403078485</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481698</v>
+        <v>8.89697123148167</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489213</v>
+        <v>14.62045677489208</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477198</v>
+        <v>18.70915102477193</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908177</v>
+        <v>19.72617653908171</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115488</v>
+        <v>19.25713215115482</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874984</v>
+        <v>17.78707839874978</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287675</v>
+        <v>15.2199183828767</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852359</v>
+        <v>10.53748257852355</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338157</v>
+        <v>5.658276933381552</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233819</v>
+        <v>2.193068516233812</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062543</v>
+        <v>0.5376850300625414</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564389</v>
+        <v>0.006864064213564368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32342,7 +32342,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32391,16 +32391,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32409,19 +32409,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>318.2864356872403</v>
+        <v>206.4560137759813</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>358.9411069805484</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>418.1651022448367</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36753,7 +36753,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237181</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356106</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>504.9282531982371</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>79.01631456769002</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597722</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412332</v>
+        <v>349.3282668412319</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222204</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
